--- a/EXCEL_OUPUT/General Purpose Financial Report 31 March 2023_ISUZU AUSTRALIA LIMITED.xlsx
+++ b/EXCEL_OUPUT/General Purpose Financial Report 31 March 2023_ISUZU AUSTRALIA LIMITED.xlsx
@@ -30,17 +30,18 @@
     <sheet name="page23_table1" sheetId="21" r:id="rId21"/>
     <sheet name="page22_table0" sheetId="22" r:id="rId22"/>
     <sheet name="page19_table0" sheetId="23" r:id="rId23"/>
-    <sheet name="page12_table0" sheetId="24" r:id="rId24"/>
-    <sheet name="page11_table0" sheetId="25" r:id="rId25"/>
-    <sheet name="page10_table0" sheetId="26" r:id="rId26"/>
-    <sheet name="page9_table0" sheetId="27" r:id="rId27"/>
+    <sheet name="page16_table0" sheetId="24" r:id="rId24"/>
+    <sheet name="page12_table0" sheetId="25" r:id="rId25"/>
+    <sheet name="page11_table0" sheetId="26" r:id="rId26"/>
+    <sheet name="page10_table0" sheetId="27" r:id="rId27"/>
+    <sheet name="page9_table0" sheetId="28" r:id="rId28"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="667">
   <si>
     <t>Trade and other receivables</t>
   </si>
@@ -183,1719 +184,1707 @@
     <t>(b)</t>
   </si>
   <si>
-    <t>Reconciliation of</t>
+    <t>Reconciliation of Cash and Bank</t>
+  </si>
+  <si>
+    <t>Cash and bank balances 187,655 231,379</t>
+  </si>
+  <si>
+    <t>Financing Facility</t>
+  </si>
+  <si>
+    <t>Unsecured bank overdraft facility payable at call</t>
+  </si>
+  <si>
+    <t>Amount used</t>
+  </si>
+  <si>
+    <t>Amount unused</t>
+  </si>
+  <si>
+    <t>2023 $'000</t>
+  </si>
+  <si>
+    <t>25000</t>
+  </si>
+  <si>
+    <t>2022 $'000</t>
+  </si>
+  <si>
+    <t>27500</t>
+  </si>
+  <si>
+    <t>Isuzu Motors Limited</t>
+  </si>
+  <si>
+    <t>Isuzu Motors America</t>
+  </si>
+  <si>
+    <t>Isuzu Marine</t>
+  </si>
+  <si>
+    <t>Isuzu System Services</t>
+  </si>
+  <si>
+    <t>ICL Co Ltd</t>
+  </si>
+  <si>
+    <t>31/03/2023</t>
+  </si>
+  <si>
+    <t>31/03/2022</t>
+  </si>
+  <si>
+    <t>Purchases from related parties</t>
+  </si>
+  <si>
+    <t>$'000</t>
+  </si>
+  <si>
+    <t>934239</t>
+  </si>
+  <si>
+    <t>904103</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>10775</t>
+  </si>
+  <si>
+    <t>8722</t>
+  </si>
+  <si>
+    <t>Amounts owed by related parties</t>
+  </si>
+  <si>
+    <t>387</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>Amounts owed to related parties</t>
+  </si>
+  <si>
+    <t>109596</t>
+  </si>
+  <si>
+    <t>169382</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2270</t>
+  </si>
+  <si>
+    <t>1126</t>
+  </si>
+  <si>
+    <t>Franking account balance</t>
+  </si>
+  <si>
+    <t>Before dividends not recognised</t>
+  </si>
+  <si>
+    <t>Impact of dividends not recognised</t>
+  </si>
+  <si>
+    <t>Adjusted for dividends not recognised</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>150606</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>110969</t>
+  </si>
+  <si>
+    <t>Balance at the beginning of the financial year</t>
+  </si>
+  <si>
+    <t>Net profit for the year</t>
+  </si>
+  <si>
+    <t>Other Comprehensive Income</t>
+  </si>
+  <si>
+    <t>Dividend Paid</t>
+  </si>
+  <si>
+    <t>Balance at the end of the financial year</t>
+  </si>
+  <si>
+    <t>135725</t>
+  </si>
+  <si>
+    <t>28290</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>(36,657)</t>
+  </si>
+  <si>
+    <t>127623</t>
+  </si>
+  <si>
+    <t>99070</t>
+  </si>
+  <si>
+    <t>(2)</t>
+  </si>
+  <si>
+    <t>10,000,000 fully paid ordinary shares (2022: 10,000,000)</t>
+  </si>
+  <si>
+    <t>37,000,000 fully paid Preference shares (2022: 37,000,000)</t>
+  </si>
+  <si>
+    <t>Profits capitalised on the redemption of preference shares</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>37000</t>
+  </si>
+  <si>
+    <t>57000</t>
+  </si>
+  <si>
+    <t>At1 April 2022</t>
+  </si>
+  <si>
+    <t>Charge for the year:</t>
+  </si>
+  <si>
+    <t>Utilised:</t>
+  </si>
+  <si>
+    <t>At31 March 2023</t>
+  </si>
+  <si>
+    <t>Current:</t>
+  </si>
+  <si>
+    <t>Non-Current:</t>
+  </si>
+  <si>
+    <t>At1 April 2021</t>
+  </si>
+  <si>
+    <t>At31 March 2022</t>
+  </si>
+  <si>
+    <t>Warranties</t>
+  </si>
+  <si>
+    <t>$000</t>
+  </si>
+  <si>
+    <t>19230</t>
+  </si>
+  <si>
+    <t>27947</t>
+  </si>
+  <si>
+    <t>(12,290)</t>
+  </si>
+  <si>
+    <t>34887</t>
+  </si>
+  <si>
+    <t>12517</t>
+  </si>
+  <si>
+    <t>22370</t>
+  </si>
+  <si>
+    <t>15722</t>
+  </si>
+  <si>
+    <t>16942</t>
+  </si>
+  <si>
+    <t>(13,434)</t>
+  </si>
+  <si>
+    <t>9113</t>
+  </si>
+  <si>
+    <t>10117</t>
+  </si>
+  <si>
+    <t>Annual Leave &amp; Long Service Leave</t>
+  </si>
+  <si>
+    <t>S000</t>
+  </si>
+  <si>
+    <t>4873</t>
+  </si>
+  <si>
+    <t>1953</t>
+  </si>
+  <si>
+    <t>(1,703)</t>
+  </si>
+  <si>
+    <t>5123</t>
+  </si>
+  <si>
+    <t>4426</t>
+  </si>
+  <si>
+    <t>697</t>
+  </si>
+  <si>
+    <t>4265</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>(1,194)</t>
+  </si>
+  <si>
+    <t>4294</t>
+  </si>
+  <si>
+    <t>579</t>
+  </si>
+  <si>
+    <t>Sales Provisions</t>
+  </si>
+  <si>
+    <t>102343</t>
+  </si>
+  <si>
+    <t>295326</t>
+  </si>
+  <si>
+    <t>(256,835)</t>
+  </si>
+  <si>
+    <t>140834</t>
+  </si>
+  <si>
+    <t>50655</t>
+  </si>
+  <si>
+    <t>248148</t>
+  </si>
+  <si>
+    <t>(196,460)</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>126446</t>
+  </si>
+  <si>
+    <t>325226</t>
+  </si>
+  <si>
+    <t>(270,828)</t>
+  </si>
+  <si>
+    <t>180844</t>
+  </si>
+  <si>
+    <t>157777</t>
+  </si>
+  <si>
+    <t>23067</t>
+  </si>
+  <si>
+    <t>70642</t>
+  </si>
+  <si>
+    <t>266892</t>
+  </si>
+  <si>
+    <t>(211,088)</t>
+  </si>
+  <si>
+    <t>115750</t>
+  </si>
+  <si>
+    <t>10696</t>
+  </si>
+  <si>
+    <t>Trade payables external parties</t>
+  </si>
+  <si>
+    <t>Trade payables related parties</t>
+  </si>
+  <si>
+    <t>Trade payables - related parties ultimate parent company</t>
+  </si>
+  <si>
+    <t>Goods and services tax (GST) payable</t>
+  </si>
+  <si>
+    <t>Other creditors</t>
+  </si>
+  <si>
+    <t>Total trade and other payables at amortised cost</t>
+  </si>
+  <si>
+    <t>50854</t>
+  </si>
+  <si>
+    <t>109601</t>
+  </si>
+  <si>
+    <t>10374</t>
+  </si>
+  <si>
+    <t>2602</t>
+  </si>
+  <si>
+    <t>175701</t>
+  </si>
+  <si>
+    <t>40768</t>
+  </si>
+  <si>
+    <t>169387</t>
+  </si>
+  <si>
+    <t>6085</t>
+  </si>
+  <si>
+    <t>2319</t>
+  </si>
+  <si>
+    <t>219685</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>At1April 2021</t>
+  </si>
+  <si>
+    <t>Reclassification from PPE</t>
+  </si>
+  <si>
+    <t>Accumulated depreciation</t>
+  </si>
+  <si>
+    <t>Amortisation charge for the year (Note 6)</t>
+  </si>
+  <si>
+    <t>Carrying value as at</t>
+  </si>
+  <si>
+    <t>31 March 2022</t>
+  </si>
+  <si>
+    <t>31 March 2021</t>
+  </si>
+  <si>
+    <t>31 March 2023</t>
+  </si>
+  <si>
+    <t>Memberships</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>(13,924)</t>
+  </si>
+  <si>
+    <t>(14,565)</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>15714</t>
+  </si>
+  <si>
+    <t>484</t>
+  </si>
+  <si>
+    <t>16198</t>
+  </si>
+  <si>
+    <t>(641)</t>
+  </si>
+  <si>
+    <t>1633</t>
+  </si>
+  <si>
+    <t>1790</t>
+  </si>
+  <si>
+    <t>384</t>
+  </si>
+  <si>
+    <t>16582</t>
+  </si>
+  <si>
+    <t>(684)</t>
+  </si>
+  <si>
+    <t>(15,249)</t>
+  </si>
+  <si>
+    <t>1333</t>
+  </si>
+  <si>
+    <t>Marketing Promotion</t>
+  </si>
+  <si>
+    <t>1140</t>
+  </si>
+  <si>
+    <t>(276)</t>
+  </si>
+  <si>
+    <t>864</t>
+  </si>
+  <si>
+    <t>(381)</t>
+  </si>
+  <si>
+    <t>(657)</t>
+  </si>
+  <si>
+    <t>483</t>
+  </si>
+  <si>
+    <t>15764</t>
+  </si>
+  <si>
+    <t>1624</t>
+  </si>
+  <si>
+    <t>17388</t>
+  </si>
+  <si>
+    <t>(917)</t>
+  </si>
+  <si>
+    <t>(14,841)</t>
+  </si>
+  <si>
+    <t>2547</t>
+  </si>
+  <si>
+    <t>1840</t>
+  </si>
+  <si>
+    <t>17772</t>
+  </si>
+  <si>
+    <t>(1,065)</t>
+  </si>
+  <si>
+    <t>(15,906)</t>
+  </si>
+  <si>
+    <t>1866</t>
+  </si>
+  <si>
+    <t>Not later than 1 year</t>
+  </si>
+  <si>
+    <t>Later than 1 year and not later than 5 years</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>8796</t>
+  </si>
+  <si>
+    <t>11796</t>
+  </si>
+  <si>
+    <t>5181</t>
+  </si>
+  <si>
+    <t>15555</t>
+  </si>
+  <si>
+    <t>Leases</t>
+  </si>
+  <si>
+    <t>Asat 1 April 2021</t>
+  </si>
+  <si>
+    <t>Additions</t>
+  </si>
+  <si>
+    <t>Depreciation charge for the year (Note 6)</t>
+  </si>
+  <si>
+    <t>Impairment (Note 6)</t>
+  </si>
+  <si>
+    <t>Interest expense</t>
+  </si>
+  <si>
+    <t>Lease payments</t>
+  </si>
+  <si>
+    <t>As at 31 March 2022</t>
+  </si>
+  <si>
+    <t>Properties</t>
+  </si>
+  <si>
+    <t>11982</t>
+  </si>
+  <si>
+    <t>(2,958)</t>
+  </si>
+  <si>
+    <t>9024</t>
+  </si>
+  <si>
+    <t>Right-of-use assets</t>
+  </si>
+  <si>
+    <t>Other equipment $'000</t>
+  </si>
+  <si>
+    <t>814</t>
+  </si>
+  <si>
+    <t>(222)</t>
+  </si>
+  <si>
+    <t>592</t>
+  </si>
+  <si>
+    <t>Motor</t>
+  </si>
+  <si>
+    <t>Vehicles</t>
+  </si>
+  <si>
+    <t>1946</t>
+  </si>
+  <si>
+    <t>1340</t>
+  </si>
+  <si>
+    <t>(1,351)</t>
+  </si>
+  <si>
+    <t>1935</t>
+  </si>
+  <si>
+    <t>14742</t>
+  </si>
+  <si>
+    <t>(4,531)</t>
+  </si>
+  <si>
+    <t>11551</t>
+  </si>
+  <si>
+    <t>Lease liabilities</t>
+  </si>
+  <si>
+    <t>19197</t>
+  </si>
+  <si>
+    <t>(5,632)</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Non-current</t>
+  </si>
+  <si>
+    <t>Asat 1 April 2022</t>
+  </si>
+  <si>
+    <t>Early terminations</t>
+  </si>
+  <si>
+    <t>Asat31 March 2023</t>
+  </si>
+  <si>
+    <t>(1,904)</t>
+  </si>
+  <si>
+    <t>7120</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>(230)</t>
+  </si>
+  <si>
+    <t>419</t>
+  </si>
+  <si>
+    <t>1530</t>
+  </si>
+  <si>
+    <t>(29)</t>
+  </si>
+  <si>
+    <t>(1,412)</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>1587</t>
+  </si>
+  <si>
+    <t>(3,546)</t>
+  </si>
+  <si>
+    <t>9563</t>
+  </si>
+  <si>
+    <t>533</t>
+  </si>
+  <si>
+    <t>(5,850)</t>
+  </si>
+  <si>
+    <t>Investment property</t>
+  </si>
+  <si>
+    <t>Land and Buildings</t>
+  </si>
+  <si>
+    <t>16102</t>
+  </si>
+  <si>
+    <t>(4,089)</t>
+  </si>
+  <si>
+    <t>(238)</t>
+  </si>
+  <si>
+    <t>(4,327)</t>
+  </si>
+  <si>
+    <t>11775</t>
+  </si>
+  <si>
+    <t>12013</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>16121</t>
+  </si>
+  <si>
+    <t>(4,565)</t>
+  </si>
+  <si>
+    <t>11556</t>
+  </si>
+  <si>
+    <t>Reclassification to PPE</t>
+  </si>
+  <si>
+    <t>Reclassification to Investment Property &amp; Intangible assets</t>
+  </si>
+  <si>
+    <t>Disposals</t>
+  </si>
+  <si>
+    <t>Write-offs</t>
+  </si>
+  <si>
+    <t>At1 . April 2022</t>
+  </si>
+  <si>
+    <t>At1April 2022</t>
+  </si>
+  <si>
+    <t>Leasehold improvement</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>(12)</t>
+  </si>
+  <si>
+    <t>(7)</t>
+  </si>
+  <si>
+    <t>(19)</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>316</t>
+  </si>
+  <si>
+    <t>(9)</t>
+  </si>
+  <si>
+    <t>(28)</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
+    <t>Plant and equipment</t>
+  </si>
+  <si>
+    <t>7515</t>
+  </si>
+  <si>
+    <t>716</t>
+  </si>
+  <si>
+    <t>(52)</t>
+  </si>
+  <si>
+    <t>8179</t>
+  </si>
+  <si>
+    <t>(3,610)</t>
+  </si>
+  <si>
+    <t>(717)</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>(4,275)</t>
+  </si>
+  <si>
+    <t>3904</t>
+  </si>
+  <si>
+    <t>3905</t>
+  </si>
+  <si>
+    <t>1427</t>
+  </si>
+  <si>
+    <t>(61)</t>
+  </si>
+  <si>
+    <t>9545</t>
+  </si>
+  <si>
+    <t>(733)</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>(4,959)</t>
+  </si>
+  <si>
+    <t>4586</t>
+  </si>
+  <si>
+    <t>Computer equipment</t>
+  </si>
+  <si>
+    <t>960</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>(722)</t>
+  </si>
+  <si>
+    <t>(822)</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>1167</t>
+  </si>
+  <si>
+    <t>(120)</t>
+  </si>
+  <si>
+    <t>(942)</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>Capital work in progress</t>
+  </si>
+  <si>
+    <t>523</t>
+  </si>
+  <si>
+    <t>2645</t>
+  </si>
+  <si>
+    <t>(849)</t>
+  </si>
+  <si>
+    <t>(1,624)</t>
+  </si>
+  <si>
+    <t>(22)</t>
+  </si>
+  <si>
+    <t>673</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>(1,711)</t>
+  </si>
+  <si>
+    <t>(403)</t>
+  </si>
+  <si>
+    <t>(5)</t>
+  </si>
+  <si>
+    <t>565</t>
+  </si>
+  <si>
+    <t>(5,116)</t>
+  </si>
+  <si>
+    <t>9104</t>
+  </si>
+  <si>
+    <t>10051</t>
+  </si>
+  <si>
+    <t>(4,344)</t>
+  </si>
+  <si>
+    <t>(824)</t>
+  </si>
+  <si>
+    <t>4935</t>
+  </si>
+  <si>
+    <t>4760</t>
+  </si>
+  <si>
+    <t>11593</t>
+  </si>
+  <si>
+    <t>(862)</t>
+  </si>
+  <si>
+    <t>(5,929)</t>
+  </si>
+  <si>
+    <t>5664</t>
+  </si>
+  <si>
+    <t>Finished goods (at cost)</t>
+  </si>
+  <si>
+    <t>Parts and accessories (at cost)</t>
+  </si>
+  <si>
+    <t>160160</t>
+  </si>
+  <si>
+    <t>77242</t>
+  </si>
+  <si>
+    <t>237402</t>
+  </si>
+  <si>
+    <t>198827</t>
+  </si>
+  <si>
+    <t>56201</t>
+  </si>
+  <si>
+    <t>255028</t>
+  </si>
+  <si>
+    <t>Receivables</t>
+  </si>
+  <si>
+    <t>Trade receivables</t>
+  </si>
+  <si>
+    <t>Allowance for expected credit losses</t>
+  </si>
+  <si>
+    <t>41636</t>
+  </si>
+  <si>
+    <t>Related party receivables - ultimate parent company</t>
+  </si>
+  <si>
+    <t>Other receivables</t>
+  </si>
+  <si>
+    <t>Trade and other receivables, including related parties</t>
+  </si>
+  <si>
+    <t>Movement in allowance accounts:</t>
+  </si>
+  <si>
+    <t>Provision</t>
+  </si>
+  <si>
+    <t>Write back</t>
+  </si>
+  <si>
+    <t>Balance at 31 March 2022</t>
+  </si>
+  <si>
+    <t>Balance at 31 March 2023</t>
+  </si>
+  <si>
+    <t>Trade</t>
+  </si>
+  <si>
+    <t>41763</t>
+  </si>
+  <si>
+    <t>(127)</t>
+  </si>
+  <si>
+    <t>21783</t>
+  </si>
+  <si>
+    <t>625</t>
+  </si>
+  <si>
+    <t>42648</t>
+  </si>
+  <si>
+    <t>Profit for the year has been arrived at after crediting/(charging):</t>
+  </si>
+  <si>
+    <t>Interest revenue</t>
+  </si>
+  <si>
+    <t>Rental revenue</t>
+  </si>
+  <si>
+    <t>5366</t>
+  </si>
+  <si>
+    <t>Leased car income</t>
+  </si>
+  <si>
+    <t>Foreign exchange gain</t>
+  </si>
+  <si>
+    <t>1227</t>
+  </si>
+  <si>
+    <t>Depreciation of plant and equipment (Note 10)</t>
+  </si>
+  <si>
+    <t>Depreciation ofinvestment property (Note 11)</t>
+  </si>
+  <si>
+    <t>Depreciation ofright-of-use assets (Note 12)</t>
+  </si>
+  <si>
+    <t>Write-offofnon-curent assets</t>
+  </si>
+  <si>
+    <t>Amortisation ofintangible assets (Note 13)</t>
+  </si>
+  <si>
+    <t>Employee benefit expense</t>
+  </si>
+  <si>
+    <t>Expenses relating to low value assets and short-term leases</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>4036</t>
+  </si>
+  <si>
+    <t>1330</t>
+  </si>
+  <si>
+    <t>1882</t>
+  </si>
+  <si>
+    <t>334</t>
+  </si>
+  <si>
+    <t>893</t>
+  </si>
+  <si>
+    <t>2636</t>
+  </si>
+  <si>
+    <t>(13)</t>
+  </si>
+  <si>
+    <t>(25,825)</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>Auditor of the Company</t>
+  </si>
+  <si>
+    <t>Audit of the financial report</t>
+  </si>
+  <si>
+    <t>Other services</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>Accounting profit before tax</t>
+  </si>
+  <si>
+    <t>AtAustralia's statutory income tax rate of 30% (2022: 30%)</t>
+  </si>
+  <si>
+    <t>Adjustments in respect of current income tax of prior year</t>
+  </si>
+  <si>
+    <t>Non-deductible expenses for tax purposes</t>
+  </si>
+  <si>
+    <t>Income tax expense at effective tax rate</t>
+  </si>
+  <si>
+    <t>Deferred tax assets relate to the following:</t>
+  </si>
+  <si>
+    <t>Unrealised foreign exchange gains</t>
+  </si>
+  <si>
+    <t>Provisions</t>
+  </si>
+  <si>
+    <t>Business related costs</t>
+  </si>
+  <si>
+    <t>Fit out incentive received</t>
+  </si>
+  <si>
+    <t>Interest income not received</t>
+  </si>
+  <si>
+    <t>Prepaid insurance</t>
+  </si>
+  <si>
+    <t>Total deferred tax assets</t>
+  </si>
+  <si>
+    <t>Reconciliation ofdeferred tax assets:</t>
+  </si>
+  <si>
+    <t>Asofl beginning of the period</t>
+  </si>
+  <si>
+    <t>Tax income during the period recognised in profit or loss</t>
+  </si>
+  <si>
+    <t>Tax income during the period recognised in other comprehensive income</t>
+  </si>
+  <si>
+    <t>Adjustments in respect deferred tax assets of prior years As of the end ofthe period</t>
+  </si>
+  <si>
+    <t>40703</t>
+  </si>
+  <si>
+    <t>12211</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>12413</t>
+  </si>
+  <si>
+    <t>58608</t>
+  </si>
+  <si>
+    <t>1195</t>
+  </si>
+  <si>
+    <t>(2,869)</t>
+  </si>
+  <si>
+    <t>3539</t>
+  </si>
+  <si>
+    <t>595</t>
+  </si>
+  <si>
+    <t>60999</t>
+  </si>
+  <si>
+    <t>44553</t>
+  </si>
+  <si>
+    <t>16585</t>
+  </si>
+  <si>
+    <t>(114)</t>
+  </si>
+  <si>
+    <t>(25)</t>
+  </si>
+  <si>
+    <t>52433</t>
+  </si>
+  <si>
+    <t>15730</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>15776</t>
+  </si>
+  <si>
+    <t>(209)</t>
+  </si>
+  <si>
+    <t>42057</t>
+  </si>
+  <si>
+    <t>867</t>
+  </si>
+  <si>
+    <t>(3,465)</t>
+  </si>
+  <si>
+    <t>4666</t>
+  </si>
+  <si>
+    <t>652</t>
+  </si>
+  <si>
+    <t>(4)</t>
+  </si>
+  <si>
+    <t>(11)</t>
+  </si>
+  <si>
+    <t>26730</t>
+  </si>
+  <si>
+    <t>17117</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>705</t>
+  </si>
+  <si>
+    <t>Profit or loss</t>
+  </si>
+  <si>
+    <t>Current income tax</t>
+  </si>
+  <si>
+    <t>Current income tax charge</t>
+  </si>
+  <si>
+    <t>Deferred income tax</t>
+  </si>
+  <si>
+    <t>Relating to origination and reversal of temporary differences</t>
+  </si>
+  <si>
+    <t>Income tax expenses reported in the statement of profit or loss</t>
+  </si>
+  <si>
+    <t>Other comprehensive income</t>
+  </si>
+  <si>
+    <t>Deferred tax related to items recognised in OCI during the year:</t>
+  </si>
+  <si>
+    <t>Net (gain)/loss on actuarial gains and losses</t>
+  </si>
+  <si>
+    <t>28995</t>
+  </si>
+  <si>
+    <t>(16,585)</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>32883</t>
+  </si>
+  <si>
+    <t>(17,117)</t>
+  </si>
+  <si>
+    <t>(1)</t>
+  </si>
+  <si>
+    <t>(a) Disaggregated revenue information</t>
+  </si>
+  <si>
+    <t>Major products or services</t>
+  </si>
+  <si>
+    <t>Sale of vehicles</t>
+  </si>
+  <si>
+    <t>Sale of parts</t>
+  </si>
+  <si>
+    <t>After-sales services</t>
+  </si>
+  <si>
+    <t>Total revenue from contracts with customers</t>
+  </si>
+  <si>
+    <t>Timing oftransfer ofgoods or services</t>
+  </si>
+  <si>
+    <t>Ata point in time</t>
+  </si>
+  <si>
+    <t>Over time</t>
+  </si>
+  <si>
+    <t>Total from contracts with customers</t>
+  </si>
+  <si>
+    <t>(b) Contract balances</t>
+  </si>
+  <si>
+    <t>Contract liabilities</t>
+  </si>
+  <si>
+    <t>Deferred revenue from service and extended warranty contracts</t>
+  </si>
+  <si>
+    <t>Total contract liabilities</t>
+  </si>
+  <si>
+    <t>1092964</t>
+  </si>
+  <si>
+    <t>167813</t>
+  </si>
+  <si>
+    <t>6395</t>
+  </si>
+  <si>
+    <t>1267172</t>
+  </si>
+  <si>
+    <t>1260777</t>
+  </si>
+  <si>
+    <t>15110</t>
+  </si>
+  <si>
+    <t>57758</t>
+  </si>
+  <si>
+    <t>11095</t>
+  </si>
+  <si>
+    <t>4015</t>
+  </si>
+  <si>
+    <t>881950</t>
+  </si>
+  <si>
+    <t>146733</t>
+  </si>
+  <si>
+    <t>5162</t>
+  </si>
+  <si>
+    <t>1033845</t>
+  </si>
+  <si>
+    <t>1028683</t>
+  </si>
+  <si>
+    <t>22375</t>
+  </si>
+  <si>
+    <t>13603</t>
+  </si>
+  <si>
+    <t>35978</t>
+  </si>
+  <si>
+    <t>9105</t>
+  </si>
+  <si>
+    <t>4498</t>
+  </si>
+  <si>
+    <t>Leasehold improvements</t>
+  </si>
+  <si>
+    <t>2 - 20 years</t>
+  </si>
+  <si>
+    <t>5 -40 years</t>
+  </si>
+  <si>
+    <t>assets</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>The</t>
+  </si>
+  <si>
+    <t>Financial</t>
+  </si>
+  <si>
+    <t>designated</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>existing</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>an</t>
+  </si>
+  <si>
+    <t>Operating Activities</t>
+  </si>
+  <si>
+    <t>Receipts from customers</t>
+  </si>
+  <si>
+    <t>Payments to suppliers and employees</t>
+  </si>
+  <si>
+    <t>Interest received</t>
+  </si>
+  <si>
+    <t>Interest and other costs of finance paid</t>
+  </si>
+  <si>
+    <t>Income tax paid</t>
+  </si>
+  <si>
+    <t>Income tax refunded</t>
+  </si>
+  <si>
+    <t>Investing Activities</t>
+  </si>
+  <si>
+    <t>Payment for plant and equipment</t>
+  </si>
+  <si>
+    <t>Payment for intangible assets (Note 13)</t>
+  </si>
+  <si>
+    <t>Net cash flows used in investing activities</t>
+  </si>
+  <si>
+    <t>Financing Activities</t>
+  </si>
+  <si>
+    <t>Payment of principal portion oflease liabilities</t>
+  </si>
+  <si>
+    <t>Payment of dividends</t>
+  </si>
+  <si>
+    <t>Net cash flows used in financing activities</t>
+  </si>
+  <si>
+    <t>Net Idecrease/increase in Cash and Cash Equivalents</t>
+  </si>
+  <si>
+    <t>Cash and Cash Equivalents at the beginning ofthe</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>Cash and Cash Equivalents at the end of the year</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>20(c)</t>
+  </si>
+  <si>
+    <t>20(a)</t>
+  </si>
+  <si>
+    <t>1375771</t>
+  </si>
+  <si>
+    <t>(1,324,033)</t>
+  </si>
+  <si>
+    <t>4405</t>
+  </si>
+  <si>
+    <t>(55,347)</t>
+  </si>
+  <si>
+    <t>(1,627)</t>
+  </si>
+  <si>
+    <t>(384)</t>
+  </si>
+  <si>
+    <t>(2,011)</t>
+  </si>
+  <si>
+    <t>(42,507)</t>
+  </si>
+  <si>
+    <t>(43,724)</t>
+  </si>
+  <si>
+    <t>231379</t>
+  </si>
+  <si>
+    <t>187655</t>
+  </si>
+  <si>
+    <t>1140310</t>
+  </si>
+  <si>
+    <t>(1,110,088)</t>
+  </si>
+  <si>
+    <t>608</t>
+  </si>
+  <si>
+    <t>(255)</t>
+  </si>
+  <si>
+    <t>(23,044)</t>
+  </si>
+  <si>
+    <t>(1,020)</t>
+  </si>
+  <si>
+    <t>(2,644)</t>
+  </si>
+  <si>
+    <t>(5,633)</t>
+  </si>
+  <si>
+    <t>(746)</t>
+  </si>
+  <si>
+    <t>232125</t>
+  </si>
+  <si>
+    <t>Balance as at 1 April 2021</t>
+  </si>
+  <si>
+    <t>Other comprehensive income for the year</t>
+  </si>
+  <si>
+    <t>Total comprehensive income for the year</t>
+  </si>
+  <si>
+    <t>Payment of dividends (Note 17 &amp; 18)</t>
+  </si>
+  <si>
+    <t>Balance as at 31 March 2022</t>
+  </si>
+  <si>
+    <t>Other comprehensive loss for the year</t>
+  </si>
+  <si>
+    <t>Balance as at 31 March 2023</t>
+  </si>
+  <si>
+    <t>Issued Capital $'000</t>
+  </si>
+  <si>
+    <t>Retained Earnings $'000</t>
+  </si>
+  <si>
+    <t>36655</t>
+  </si>
+  <si>
+    <t>28555</t>
+  </si>
+  <si>
+    <t>Total $'000</t>
+  </si>
+  <si>
+    <t>156070</t>
+  </si>
+  <si>
+    <t>192725</t>
+  </si>
+  <si>
+    <t>184623</t>
+  </si>
+  <si>
+    <t>CurrentAssets</t>
   </si>
   <si>
     <t>Cash and bank balances</t>
   </si>
   <si>
-    <t>Financing Facility</t>
-  </si>
-  <si>
-    <t>Unsecured bank overdraft facility payable at call</t>
-  </si>
-  <si>
-    <t>Amount used</t>
-  </si>
-  <si>
-    <t>Amount unused</t>
-  </si>
-  <si>
-    <t>Cash and</t>
-  </si>
-  <si>
-    <t>2023 $'000</t>
-  </si>
-  <si>
-    <t>Bank</t>
-  </si>
-  <si>
-    <t>at</t>
-  </si>
-  <si>
-    <t>187655</t>
-  </si>
-  <si>
-    <t>25000</t>
-  </si>
-  <si>
-    <t>2022 $'000</t>
-  </si>
-  <si>
-    <t>231379</t>
-  </si>
-  <si>
-    <t>27500</t>
-  </si>
-  <si>
-    <t>Isuzu Motors Limited</t>
-  </si>
-  <si>
-    <t>Isuzu Motors America</t>
-  </si>
-  <si>
-    <t>Isuzu Marine</t>
-  </si>
-  <si>
-    <t>Isuzu System Services</t>
-  </si>
-  <si>
-    <t>ICL Co Ltd</t>
-  </si>
-  <si>
-    <t>31/03/2023</t>
-  </si>
-  <si>
-    <t>31/03/2022</t>
-  </si>
-  <si>
-    <t>Purchases from related parties</t>
-  </si>
-  <si>
-    <t>$'000</t>
-  </si>
-  <si>
-    <t>934239</t>
-  </si>
-  <si>
-    <t>904103</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>10775</t>
-  </si>
-  <si>
-    <t>8722</t>
-  </si>
-  <si>
-    <t>Amounts owed by related parties</t>
-  </si>
-  <si>
-    <t>387</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>Amounts owed to related parties</t>
-  </si>
-  <si>
-    <t>109596</t>
-  </si>
-  <si>
-    <t>169382</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>2270</t>
-  </si>
-  <si>
-    <t>1126</t>
-  </si>
-  <si>
-    <t>Franking account balance</t>
-  </si>
-  <si>
-    <t>Before dividends not recognised</t>
-  </si>
-  <si>
-    <t>Impact of dividends not recognised</t>
-  </si>
-  <si>
-    <t>Adjusted for dividends not recognised</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>150606</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>110969</t>
-  </si>
-  <si>
-    <t>Balance at the beginning of the financial year</t>
-  </si>
-  <si>
-    <t>Net profit for the year</t>
-  </si>
-  <si>
-    <t>Other Comprehensive Income</t>
-  </si>
-  <si>
-    <t>Dividend Paid</t>
-  </si>
-  <si>
-    <t>Balance at the end of the financial year</t>
-  </si>
-  <si>
-    <t>135725</t>
-  </si>
-  <si>
-    <t>28290</t>
-  </si>
-  <si>
-    <t>265</t>
-  </si>
-  <si>
-    <t>(36,657)</t>
-  </si>
-  <si>
-    <t>127623</t>
-  </si>
-  <si>
-    <t>99070</t>
-  </si>
-  <si>
-    <t>(2)</t>
-  </si>
-  <si>
-    <t>10,000,000 fully paid ordinary shares (2022: 10,000,000)</t>
-  </si>
-  <si>
-    <t>37,000,000 fully paid Preference shares (2022: 37,000,000)</t>
-  </si>
-  <si>
-    <t>Profits capitalised on the redemption of preference shares</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>37000</t>
-  </si>
-  <si>
-    <t>57000</t>
-  </si>
-  <si>
-    <t>At1 April 2022</t>
-  </si>
-  <si>
-    <t>Charge for the year:</t>
-  </si>
-  <si>
-    <t>Utilised:</t>
-  </si>
-  <si>
-    <t>At31 March 2023</t>
-  </si>
-  <si>
-    <t>Current:</t>
-  </si>
-  <si>
-    <t>Non-Current:</t>
-  </si>
-  <si>
-    <t>At1 April 2021</t>
-  </si>
-  <si>
-    <t>At31 March 2022</t>
-  </si>
-  <si>
-    <t>Warranties</t>
-  </si>
-  <si>
-    <t>$000</t>
-  </si>
-  <si>
-    <t>19230</t>
-  </si>
-  <si>
-    <t>27947</t>
-  </si>
-  <si>
-    <t>(12,290)</t>
-  </si>
-  <si>
-    <t>34887</t>
-  </si>
-  <si>
-    <t>12517</t>
-  </si>
-  <si>
-    <t>22370</t>
-  </si>
-  <si>
-    <t>15722</t>
-  </si>
-  <si>
-    <t>16942</t>
-  </si>
-  <si>
-    <t>(13,434)</t>
-  </si>
-  <si>
-    <t>9113</t>
-  </si>
-  <si>
-    <t>10117</t>
-  </si>
-  <si>
-    <t>Annual Leave &amp; Long Service Leave</t>
-  </si>
-  <si>
-    <t>S000</t>
-  </si>
-  <si>
-    <t>4873</t>
-  </si>
-  <si>
-    <t>1953</t>
-  </si>
-  <si>
-    <t>(1,703)</t>
-  </si>
-  <si>
-    <t>5123</t>
-  </si>
-  <si>
-    <t>4426</t>
-  </si>
-  <si>
-    <t>697</t>
-  </si>
-  <si>
-    <t>4265</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>(1,194)</t>
-  </si>
-  <si>
-    <t>4294</t>
-  </si>
-  <si>
-    <t>579</t>
-  </si>
-  <si>
-    <t>Sales Provisions</t>
-  </si>
-  <si>
-    <t>102343</t>
-  </si>
-  <si>
-    <t>295326</t>
-  </si>
-  <si>
-    <t>(256,835)</t>
-  </si>
-  <si>
-    <t>140834</t>
-  </si>
-  <si>
-    <t>50655</t>
-  </si>
-  <si>
-    <t>248148</t>
-  </si>
-  <si>
-    <t>(196,460)</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>126446</t>
-  </si>
-  <si>
-    <t>325226</t>
-  </si>
-  <si>
-    <t>(270,828)</t>
-  </si>
-  <si>
-    <t>180844</t>
-  </si>
-  <si>
-    <t>157777</t>
-  </si>
-  <si>
-    <t>23067</t>
-  </si>
-  <si>
-    <t>70642</t>
-  </si>
-  <si>
-    <t>266892</t>
-  </si>
-  <si>
-    <t>(211,088)</t>
-  </si>
-  <si>
-    <t>115750</t>
-  </si>
-  <si>
-    <t>10696</t>
-  </si>
-  <si>
-    <t>Trade payables external parties</t>
-  </si>
-  <si>
-    <t>Trade payables related parties</t>
-  </si>
-  <si>
-    <t>Trade payables - related parties ultimate parent company</t>
-  </si>
-  <si>
-    <t>Goods and services tax (GST) payable</t>
-  </si>
-  <si>
-    <t>Other creditors</t>
-  </si>
-  <si>
-    <t>Total trade and other payables at amortised cost</t>
-  </si>
-  <si>
-    <t>50854</t>
-  </si>
-  <si>
-    <t>109601</t>
-  </si>
-  <si>
-    <t>10374</t>
-  </si>
-  <si>
-    <t>2602</t>
-  </si>
-  <si>
-    <t>175701</t>
-  </si>
-  <si>
-    <t>40768</t>
-  </si>
-  <si>
-    <t>169387</t>
-  </si>
-  <si>
-    <t>6085</t>
-  </si>
-  <si>
-    <t>2319</t>
-  </si>
-  <si>
-    <t>219685</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>At1April 2021</t>
-  </si>
-  <si>
-    <t>Reclassification from PPE</t>
-  </si>
-  <si>
-    <t>Accumulated depreciation</t>
-  </si>
-  <si>
-    <t>Amortisation charge for the year (Note 6)</t>
-  </si>
-  <si>
-    <t>Carrying value as at</t>
-  </si>
-  <si>
-    <t>31 March 2022</t>
-  </si>
-  <si>
-    <t>31 March 2021</t>
-  </si>
-  <si>
-    <t>31 March 2023</t>
-  </si>
-  <si>
-    <t>Memberships</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>(13,924)</t>
-  </si>
-  <si>
-    <t>(14,565)</t>
-  </si>
-  <si>
-    <t>Software</t>
-  </si>
-  <si>
-    <t>15714</t>
-  </si>
-  <si>
-    <t>484</t>
-  </si>
-  <si>
-    <t>16198</t>
-  </si>
-  <si>
-    <t>(641)</t>
-  </si>
-  <si>
-    <t>1633</t>
-  </si>
-  <si>
-    <t>1790</t>
-  </si>
-  <si>
-    <t>384</t>
-  </si>
-  <si>
-    <t>16582</t>
-  </si>
-  <si>
-    <t>(684)</t>
-  </si>
-  <si>
-    <t>(15,249)</t>
-  </si>
-  <si>
-    <t>1333</t>
-  </si>
-  <si>
-    <t>Marketing Promotion</t>
-  </si>
-  <si>
-    <t>1140</t>
-  </si>
-  <si>
-    <t>(276)</t>
-  </si>
-  <si>
-    <t>864</t>
-  </si>
-  <si>
-    <t>(381)</t>
-  </si>
-  <si>
-    <t>(657)</t>
-  </si>
-  <si>
-    <t>483</t>
-  </si>
-  <si>
-    <t>15764</t>
-  </si>
-  <si>
-    <t>1624</t>
-  </si>
-  <si>
-    <t>17388</t>
-  </si>
-  <si>
-    <t>(917)</t>
-  </si>
-  <si>
-    <t>(14,841)</t>
-  </si>
-  <si>
-    <t>2547</t>
-  </si>
-  <si>
-    <t>1840</t>
-  </si>
-  <si>
-    <t>17772</t>
-  </si>
-  <si>
-    <t>(1,065)</t>
-  </si>
-  <si>
-    <t>(15,906)</t>
-  </si>
-  <si>
-    <t>1866</t>
-  </si>
-  <si>
-    <t>Not later than 1 year</t>
-  </si>
-  <si>
-    <t>Later than 1 year and not later than 5 years</t>
-  </si>
-  <si>
-    <t>3000</t>
-  </si>
-  <si>
-    <t>8796</t>
-  </si>
-  <si>
-    <t>11796</t>
-  </si>
-  <si>
-    <t>5181</t>
-  </si>
-  <si>
-    <t>15555</t>
-  </si>
-  <si>
-    <t>Asat 1 April 2021</t>
-  </si>
-  <si>
-    <t>Additions</t>
-  </si>
-  <si>
-    <t>Depreciation charge for the year (Note 6)</t>
-  </si>
-  <si>
-    <t>Impairment (Note 6)</t>
-  </si>
-  <si>
-    <t>Interest expense</t>
-  </si>
-  <si>
-    <t>Lease payments</t>
-  </si>
-  <si>
-    <t>As at 31 March 2022</t>
-  </si>
-  <si>
-    <t>Properties</t>
-  </si>
-  <si>
-    <t>11982</t>
-  </si>
-  <si>
-    <t>(2,958)</t>
-  </si>
-  <si>
-    <t>9024</t>
-  </si>
-  <si>
-    <t>Right-of-use assets</t>
-  </si>
-  <si>
-    <t>Other equipment</t>
-  </si>
-  <si>
-    <t>814</t>
-  </si>
-  <si>
-    <t>(222)</t>
-  </si>
-  <si>
-    <t>592</t>
-  </si>
-  <si>
-    <t>Motor Vehicles</t>
-  </si>
-  <si>
-    <t>1946</t>
-  </si>
-  <si>
-    <t>1340</t>
-  </si>
-  <si>
-    <t>(1,351)</t>
-  </si>
-  <si>
-    <t>1935</t>
-  </si>
-  <si>
-    <t>14742</t>
-  </si>
-  <si>
-    <t>(4,531)</t>
-  </si>
-  <si>
-    <t>11551</t>
-  </si>
-  <si>
-    <t>Lease liabilities</t>
-  </si>
-  <si>
-    <t>19197</t>
-  </si>
-  <si>
-    <t>(5,632)</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>Non-current</t>
-  </si>
-  <si>
-    <t>Asat 1 April 2022</t>
-  </si>
-  <si>
-    <t>Early terminations</t>
-  </si>
-  <si>
-    <t>Asat31 March 2023</t>
-  </si>
-  <si>
-    <t>(1,904)</t>
-  </si>
-  <si>
-    <t>7120</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>(230)</t>
-  </si>
-  <si>
-    <t>419</t>
-  </si>
-  <si>
-    <t>1530</t>
-  </si>
-  <si>
-    <t>(29)</t>
-  </si>
-  <si>
-    <t>(1,412)</t>
-  </si>
-  <si>
-    <t>2024</t>
-  </si>
-  <si>
-    <t>1587</t>
-  </si>
-  <si>
-    <t>(3,546)</t>
-  </si>
-  <si>
-    <t>9563</t>
-  </si>
-  <si>
-    <t>533</t>
-  </si>
-  <si>
-    <t>(5,850)</t>
-  </si>
-  <si>
-    <t>Investment property</t>
-  </si>
-  <si>
-    <t>Land and Buildings</t>
-  </si>
-  <si>
-    <t>16102</t>
-  </si>
-  <si>
-    <t>(4,089)</t>
-  </si>
-  <si>
-    <t>(238)</t>
-  </si>
-  <si>
-    <t>(4,327)</t>
-  </si>
-  <si>
-    <t>11775</t>
-  </si>
-  <si>
-    <t>12013</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>16121</t>
-  </si>
-  <si>
-    <t>(4,565)</t>
-  </si>
-  <si>
-    <t>11556</t>
-  </si>
-  <si>
-    <t>Reclassification to PPE</t>
-  </si>
-  <si>
-    <t>Reclassification to Investment Property &amp; Intangible assets</t>
-  </si>
-  <si>
-    <t>Disposals</t>
-  </si>
-  <si>
-    <t>Write-offs</t>
-  </si>
-  <si>
-    <t>At1 . April 2022</t>
-  </si>
-  <si>
-    <t>At1April 2022</t>
-  </si>
-  <si>
-    <t>Leasehold improvement</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>(12)</t>
-  </si>
-  <si>
-    <t>(7)</t>
-  </si>
-  <si>
-    <t>(19)</t>
-  </si>
-  <si>
-    <t>178</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>316</t>
-  </si>
-  <si>
-    <t>(9)</t>
-  </si>
-  <si>
-    <t>(28)</t>
-  </si>
-  <si>
-    <t>288</t>
-  </si>
-  <si>
-    <t>Plant and equipment</t>
-  </si>
-  <si>
-    <t>7515</t>
-  </si>
-  <si>
-    <t>716</t>
-  </si>
-  <si>
-    <t>(52)</t>
-  </si>
-  <si>
-    <t>8179</t>
-  </si>
-  <si>
-    <t>(3,610)</t>
-  </si>
-  <si>
-    <t>(717)</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>(4,275)</t>
-  </si>
-  <si>
-    <t>3904</t>
-  </si>
-  <si>
-    <t>3905</t>
-  </si>
-  <si>
-    <t>1427</t>
-  </si>
-  <si>
-    <t>(61)</t>
-  </si>
-  <si>
-    <t>9545</t>
-  </si>
-  <si>
-    <t>(733)</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>(4,959)</t>
-  </si>
-  <si>
-    <t>4586</t>
-  </si>
-  <si>
-    <t>Computer equipment</t>
-  </si>
-  <si>
-    <t>960</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>1002</t>
-  </si>
-  <si>
-    <t>(722)</t>
-  </si>
-  <si>
-    <t>(822)</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>1167</t>
-  </si>
-  <si>
-    <t>(120)</t>
-  </si>
-  <si>
-    <t>(942)</t>
-  </si>
-  <si>
-    <t>225</t>
-  </si>
-  <si>
-    <t>Capital work in progress</t>
-  </si>
-  <si>
-    <t>523</t>
-  </si>
-  <si>
-    <t>2645</t>
-  </si>
-  <si>
-    <t>(849)</t>
-  </si>
-  <si>
-    <t>(1,624)</t>
-  </si>
-  <si>
-    <t>(22)</t>
-  </si>
-  <si>
-    <t>673</t>
-  </si>
-  <si>
-    <t>(4,344)</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>(1,711)</t>
-  </si>
-  <si>
-    <t>(403)</t>
-  </si>
-  <si>
-    <t>(5)</t>
-  </si>
-  <si>
-    <t>565</t>
-  </si>
-  <si>
-    <t>(5,116)</t>
-  </si>
-  <si>
-    <t>(862)</t>
-  </si>
-  <si>
-    <t>9104</t>
-  </si>
-  <si>
-    <t>10051</t>
-  </si>
-  <si>
-    <t>(824)</t>
-  </si>
-  <si>
-    <t>4935</t>
-  </si>
-  <si>
-    <t>4760</t>
-  </si>
-  <si>
-    <t>11593</t>
-  </si>
-  <si>
-    <t>(5,929)</t>
-  </si>
-  <si>
-    <t>5664</t>
-  </si>
-  <si>
-    <t>Trade and Other Receivables</t>
-  </si>
-  <si>
-    <t>Trade receivables</t>
-  </si>
-  <si>
-    <t>Allowance for expected credit losses</t>
-  </si>
-  <si>
-    <t>Aggregate amounts receivable from other parties not included in trade receivables above</t>
-  </si>
-  <si>
-    <t>Related party receivables - ultimate parent company</t>
-  </si>
-  <si>
-    <t>Other receivables</t>
-  </si>
-  <si>
-    <t>Trade and other receivables, including related parties</t>
-  </si>
-  <si>
-    <t>Movement in allowance accounts:</t>
-  </si>
-  <si>
-    <t>Provision</t>
-  </si>
-  <si>
-    <t>Write back</t>
-  </si>
-  <si>
-    <t>Balance at 31 March 2022</t>
-  </si>
-  <si>
-    <t>Balance at 31 March 2023</t>
-  </si>
-  <si>
-    <t>41763</t>
-  </si>
-  <si>
-    <t>(127)</t>
-  </si>
-  <si>
-    <t>41636</t>
-  </si>
-  <si>
-    <t>625</t>
-  </si>
-  <si>
-    <t>42648</t>
+    <t>Current Tax Asset</t>
+  </si>
+  <si>
+    <t>Total CurrentAssets</t>
+  </si>
+  <si>
+    <t>Non-Current Assets</t>
+  </si>
+  <si>
+    <t>Intangible assets</t>
+  </si>
+  <si>
+    <t>Total Non-Current Assets</t>
+  </si>
+  <si>
+    <t>Total Assets</t>
+  </si>
+  <si>
+    <t>Current Liabilities</t>
+  </si>
+  <si>
+    <t>Trade and other payables</t>
+  </si>
+  <si>
+    <t>Current tax liability</t>
+  </si>
+  <si>
+    <t>Total Current Liabilities</t>
+  </si>
+  <si>
+    <t>Non-Current Liabilities</t>
+  </si>
+  <si>
+    <t>Total Non-Current Liabilities</t>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+  </si>
+  <si>
+    <t>NetAssets</t>
+  </si>
+  <si>
+    <t>Equity</t>
+  </si>
+  <si>
+    <t>Issued capital</t>
+  </si>
+  <si>
+    <t>Retained earnings</t>
+  </si>
+  <si>
+    <t>Total Equity</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>(87)</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>21964</t>
-  </si>
-  <si>
-    <t>(181)</t>
-  </si>
-  <si>
-    <t>21783</t>
-  </si>
-  <si>
-    <t>395</t>
-  </si>
-  <si>
-    <t>22375</t>
-  </si>
-  <si>
-    <t>Finished goods (at cost)</t>
-  </si>
-  <si>
-    <t>Parts and accessories (at cost)</t>
-  </si>
-  <si>
-    <t>160160</t>
-  </si>
-  <si>
-    <t>77242</t>
-  </si>
-  <si>
-    <t>237402</t>
-  </si>
-  <si>
-    <t>198827</t>
-  </si>
-  <si>
-    <t>56201</t>
-  </si>
-  <si>
-    <t>255028</t>
-  </si>
-  <si>
-    <t>Profit for the year has been arrived at after crediting/(charging):</t>
-  </si>
-  <si>
-    <t>Other Revenue</t>
-  </si>
-  <si>
-    <t>Interest revenue</t>
-  </si>
-  <si>
-    <t>Rental revenue</t>
-  </si>
-  <si>
-    <t>Other Income</t>
-  </si>
-  <si>
-    <t>Leased car income</t>
-  </si>
-  <si>
-    <t>Foreign exchange gain</t>
-  </si>
-  <si>
-    <t>Depreciation of plant and equipment (Note 10)</t>
-  </si>
-  <si>
-    <t>Depreciation ofinvestment property (Note 11)</t>
-  </si>
-  <si>
-    <t>Depreciation ofright-of-use assets (Note 12)</t>
-  </si>
-  <si>
-    <t>Write-offofnon-curent assets</t>
-  </si>
-  <si>
-    <t>Amortisation ofintangible assets (Note 13)</t>
-  </si>
-  <si>
-    <t>Employee benefit expense</t>
-  </si>
-  <si>
-    <t>Expenses relating to low value assets and short-term leases</t>
-  </si>
-  <si>
-    <t>4036</t>
-  </si>
-  <si>
-    <t>1330</t>
-  </si>
-  <si>
-    <t>5366</t>
-  </si>
-  <si>
-    <t>334</t>
-  </si>
-  <si>
-    <t>893</t>
-  </si>
-  <si>
-    <t>1227</t>
-  </si>
-  <si>
-    <t>(13)</t>
-  </si>
-  <si>
-    <t>(25,825)</t>
-  </si>
-  <si>
-    <t>(1,069)</t>
-  </si>
-  <si>
-    <t>602</t>
-  </si>
-  <si>
-    <t>1280</t>
-  </si>
-  <si>
-    <t>1882</t>
-  </si>
-  <si>
-    <t>305</t>
-  </si>
-  <si>
-    <t>2331</t>
-  </si>
-  <si>
-    <t>2636</t>
-  </si>
-  <si>
-    <t>(23,438)</t>
-  </si>
-  <si>
-    <t>(1,103)</t>
-  </si>
-  <si>
-    <t>Auditor of the Company</t>
-  </si>
-  <si>
-    <t>Audit of the financial report</t>
-  </si>
-  <si>
-    <t>Other services</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>236</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>Accounting profit before tax</t>
-  </si>
-  <si>
-    <t>AtAustralia's statutory income tax rate of 30% (2022: 30%)</t>
-  </si>
-  <si>
-    <t>Adjustments in respect of current income tax of prior year</t>
-  </si>
-  <si>
-    <t>Non-deductible expenses for tax purposes</t>
-  </si>
-  <si>
-    <t>Income tax expense at effective tax rate</t>
-  </si>
-  <si>
-    <t>Deferred tax assets relate to the following:</t>
-  </si>
-  <si>
-    <t>Unrealised foreign exchange gains</t>
-  </si>
-  <si>
-    <t>Provisions</t>
-  </si>
-  <si>
-    <t>Business related costs</t>
-  </si>
-  <si>
-    <t>Fit out incentive received</t>
-  </si>
-  <si>
-    <t>Interest income not received</t>
-  </si>
-  <si>
-    <t>Prepaid insurance</t>
-  </si>
-  <si>
-    <t>Total deferred tax assets</t>
-  </si>
-  <si>
-    <t>Reconciliation ofdeferred tax assets:</t>
-  </si>
-  <si>
-    <t>Asofl beginning of the period</t>
-  </si>
-  <si>
-    <t>Tax income during the period recognised in profit or loss</t>
-  </si>
-  <si>
-    <t>Tax income during the period recognised in other comprehensive</t>
-  </si>
-  <si>
-    <t>income</t>
-  </si>
-  <si>
-    <t>Adjustments in respect deferred tax assets of prior years As of the end ofthe period</t>
-  </si>
-  <si>
-    <t>40703</t>
-  </si>
-  <si>
-    <t>12211</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>12413</t>
-  </si>
-  <si>
-    <t>58608</t>
-  </si>
-  <si>
-    <t>1195</t>
-  </si>
-  <si>
-    <t>(2,869)</t>
-  </si>
-  <si>
-    <t>3539</t>
-  </si>
-  <si>
-    <t>595</t>
-  </si>
-  <si>
-    <t>60999</t>
-  </si>
-  <si>
-    <t>44553</t>
-  </si>
-  <si>
-    <t>16585</t>
-  </si>
-  <si>
-    <t>(114)</t>
-  </si>
-  <si>
-    <t>(25)</t>
-  </si>
-  <si>
-    <t>52433</t>
-  </si>
-  <si>
-    <t>15730</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>15776</t>
-  </si>
-  <si>
-    <t>(209)</t>
-  </si>
-  <si>
-    <t>42057</t>
-  </si>
-  <si>
-    <t>867</t>
-  </si>
-  <si>
-    <t>(3,465)</t>
-  </si>
-  <si>
-    <t>4666</t>
-  </si>
-  <si>
-    <t>652</t>
-  </si>
-  <si>
-    <t>(4)</t>
-  </si>
-  <si>
-    <t>(11)</t>
-  </si>
-  <si>
-    <t>26730</t>
-  </si>
-  <si>
-    <t>17117</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>705</t>
-  </si>
-  <si>
-    <t>Profit or loss</t>
-  </si>
-  <si>
-    <t>Current income tax</t>
-  </si>
-  <si>
-    <t>Current income tax charge</t>
-  </si>
-  <si>
-    <t>Deferred income tax</t>
-  </si>
-  <si>
-    <t>Relating to origination and reversal of temporary differences</t>
-  </si>
-  <si>
-    <t>Income tax expenses reported in the statement of profit or loss</t>
-  </si>
-  <si>
-    <t>Other comprehensive income</t>
-  </si>
-  <si>
-    <t>Deferred tax related to items recognised in OCI during the year:</t>
-  </si>
-  <si>
-    <t>Net (gain)/loss on actuarial gains and losses</t>
-  </si>
-  <si>
-    <t>28995</t>
-  </si>
-  <si>
-    <t>(16,585)</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>32883</t>
-  </si>
-  <si>
-    <t>(17,117)</t>
-  </si>
-  <si>
-    <t>(1)</t>
-  </si>
-  <si>
-    <t>(a) Disaggregated revenue information</t>
-  </si>
-  <si>
-    <t>Major products or services</t>
-  </si>
-  <si>
-    <t>Sale of vehicles</t>
-  </si>
-  <si>
-    <t>Sale of parts</t>
-  </si>
-  <si>
-    <t>After-sales services</t>
-  </si>
-  <si>
-    <t>Total revenue from contracts with customers</t>
-  </si>
-  <si>
-    <t>Timing oftransfer ofgoods or services</t>
-  </si>
-  <si>
-    <t>Ata point in time</t>
-  </si>
-  <si>
-    <t>Over time</t>
-  </si>
-  <si>
-    <t>Total from contracts with customers</t>
-  </si>
-  <si>
-    <t>(b) Contract balances</t>
-  </si>
-  <si>
-    <t>Contract liabilities</t>
-  </si>
-  <si>
-    <t>Deferred revenue from service and extended warranty contracts</t>
-  </si>
-  <si>
-    <t>Total contract liabilities</t>
-  </si>
-  <si>
-    <t>1092964</t>
-  </si>
-  <si>
-    <t>167813</t>
-  </si>
-  <si>
-    <t>6395</t>
-  </si>
-  <si>
-    <t>1267172</t>
-  </si>
-  <si>
-    <t>1260777</t>
-  </si>
-  <si>
-    <t>15110</t>
-  </si>
-  <si>
-    <t>57758</t>
-  </si>
-  <si>
-    <t>11095</t>
-  </si>
-  <si>
-    <t>4015</t>
-  </si>
-  <si>
-    <t>881950</t>
-  </si>
-  <si>
-    <t>146733</t>
-  </si>
-  <si>
-    <t>5162</t>
-  </si>
-  <si>
-    <t>1033845</t>
-  </si>
-  <si>
-    <t>1028683</t>
-  </si>
-  <si>
-    <t>13603</t>
-  </si>
-  <si>
-    <t>35978</t>
-  </si>
-  <si>
-    <t>9105</t>
-  </si>
-  <si>
-    <t>4498</t>
-  </si>
-  <si>
-    <t>Leasehold improvements</t>
-  </si>
-  <si>
-    <t>2 - 20 years</t>
-  </si>
-  <si>
-    <t>5 -40 years</t>
-  </si>
-  <si>
-    <t>Operating Activities</t>
-  </si>
-  <si>
-    <t>Receipts from customers</t>
-  </si>
-  <si>
-    <t>Payments to suppliers and employees</t>
-  </si>
-  <si>
-    <t>Interest received</t>
-  </si>
-  <si>
-    <t>Interest and other costs of finance paid</t>
-  </si>
-  <si>
-    <t>Income tax paid</t>
-  </si>
-  <si>
-    <t>Income tax refunded</t>
-  </si>
-  <si>
-    <t>Investing Activities</t>
-  </si>
-  <si>
-    <t>Payment for plant and equipment</t>
-  </si>
-  <si>
-    <t>Payment for intangible assets (Note 13)</t>
-  </si>
-  <si>
-    <t>Net cash flows used in investing activities</t>
-  </si>
-  <si>
-    <t>Financing Activities</t>
-  </si>
-  <si>
-    <t>Payment of principal portion oflease liabilities</t>
-  </si>
-  <si>
-    <t>Payment of dividends</t>
-  </si>
-  <si>
-    <t>Net cash flows used in financing activities</t>
-  </si>
-  <si>
-    <t>Net Idecrease/increase in Cash and Cash Equivalents</t>
-  </si>
-  <si>
-    <t>Cash and Cash Equivalents at the beginning ofthe</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>Cash and Cash Equivalents at the end of the year</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>20(c)</t>
-  </si>
-  <si>
-    <t>20(a)</t>
-  </si>
-  <si>
-    <t>1375771</t>
-  </si>
-  <si>
-    <t>(1,324,033)</t>
-  </si>
-  <si>
-    <t>4405</t>
-  </si>
-  <si>
-    <t>(55,347)</t>
-  </si>
-  <si>
-    <t>(1,627)</t>
-  </si>
-  <si>
-    <t>(384)</t>
-  </si>
-  <si>
-    <t>(2,011)</t>
-  </si>
-  <si>
-    <t>(42,507)</t>
-  </si>
-  <si>
-    <t>(43,724)</t>
-  </si>
-  <si>
-    <t>1140310</t>
-  </si>
-  <si>
-    <t>(1,110,088)</t>
-  </si>
-  <si>
-    <t>608</t>
-  </si>
-  <si>
-    <t>(255)</t>
-  </si>
-  <si>
-    <t>(23,044)</t>
-  </si>
-  <si>
-    <t>(1,020)</t>
-  </si>
-  <si>
-    <t>(2,644)</t>
-  </si>
-  <si>
-    <t>(5,633)</t>
-  </si>
-  <si>
-    <t>(746)</t>
-  </si>
-  <si>
-    <t>232125</t>
-  </si>
-  <si>
-    <t>Balance as at 1 April 2021</t>
-  </si>
-  <si>
-    <t>Other comprehensive income for the year</t>
-  </si>
-  <si>
-    <t>Total comprehensive income for the year</t>
-  </si>
-  <si>
-    <t>Payment of dividends (Note 17 &amp; 18)</t>
-  </si>
-  <si>
-    <t>Balance as at 31 March 2022</t>
-  </si>
-  <si>
-    <t>Other comprehensive loss for the year</t>
-  </si>
-  <si>
-    <t>Balance as at 31 March 2023</t>
-  </si>
-  <si>
-    <t>Issued Capital $'000</t>
-  </si>
-  <si>
-    <t>Retained Earnings $'000</t>
-  </si>
-  <si>
-    <t>36655</t>
-  </si>
-  <si>
-    <t>28555</t>
-  </si>
-  <si>
-    <t>Total $'000</t>
-  </si>
-  <si>
-    <t>156070</t>
-  </si>
-  <si>
-    <t>192725</t>
-  </si>
-  <si>
-    <t>184623</t>
-  </si>
-  <si>
-    <t>CurrentAssets</t>
-  </si>
-  <si>
-    <t>Current Tax Asset</t>
-  </si>
-  <si>
-    <t>Total CurrentAssets</t>
-  </si>
-  <si>
-    <t>Non-Current Assets</t>
-  </si>
-  <si>
-    <t>Intangible assets</t>
-  </si>
-  <si>
-    <t>Total Non-Current Assets</t>
-  </si>
-  <si>
-    <t>Total Assets</t>
-  </si>
-  <si>
-    <t>Current Liabilities</t>
-  </si>
-  <si>
-    <t>Trade and other payables</t>
-  </si>
-  <si>
-    <t>Current tax liability</t>
-  </si>
-  <si>
-    <t>Total Current Liabilities</t>
-  </si>
-  <si>
-    <t>Non-Current Liabilities</t>
-  </si>
-  <si>
-    <t>Total Non-Current Liabilities</t>
-  </si>
-  <si>
-    <t>Total Liabilities</t>
-  </si>
-  <si>
-    <t>NetAssets</t>
-  </si>
-  <si>
-    <t>Equity</t>
-  </si>
-  <si>
-    <t>Issued capital</t>
-  </si>
-  <si>
-    <t>Retained earnings</t>
-  </si>
-  <si>
-    <t>Total Equity</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>14</t>
   </si>
   <si>
@@ -2001,7 +1990,7 @@
     <t>Actuarial gains /(losses) on retirement benefit obligation (net of income tax)</t>
   </si>
   <si>
-    <t>Other comprehensive incomellloss), net ofincome tax, for the</t>
+    <t>Other comprehensive incomellloss), net ofincome tax, for the year</t>
   </si>
   <si>
     <t>Totalcomprehensive income for the year</t>
@@ -2558,288 +2547,288 @@
     </row>
     <row r="2" spans="1:5">
       <c r="B2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="B3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B5" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C5" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E5" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C6" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D6" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E6" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C9" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D9" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E9" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C10" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D10" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E10" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D11" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E11" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B13" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C13" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D13" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E13" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B14" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C14" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E14" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C16" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E16" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C17" t="s">
+        <v>200</v>
+      </c>
+      <c r="D17" t="s">
         <v>205</v>
       </c>
-      <c r="D17" t="s">
-        <v>210</v>
-      </c>
       <c r="E17" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B19" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C19" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D19" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E19" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C20" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D20" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E20" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D21" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E21" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B23" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C23" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D23" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E23" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B24" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C24" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D24" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E24" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -2868,40 +2857,40 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" t="s">
         <v>227</v>
-      </c>
-      <c r="B3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C3" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2911,7 +2900,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2938,137 +2927,156 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="C2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F2" t="s">
-        <v>258</v>
+      <c r="A2" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>241</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="C4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D4" t="s">
         <v>246</v>
       </c>
-      <c r="D3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="B4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" t="s">
-        <v>70</v>
-      </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>151</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>234</v>
-      </c>
       <c r="B5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" t="s">
         <v>242</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>247</v>
       </c>
-      <c r="D5" t="s">
-        <v>251</v>
-      </c>
       <c r="E5" t="s">
-        <v>255</v>
-      </c>
-      <c r="F5" t="s">
-        <v>259</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>235</v>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>242</v>
       </c>
       <c r="D6" t="s">
-        <v>252</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>252</v>
+        <v>65</v>
       </c>
       <c r="F6" t="s">
-        <v>252</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C7" t="s">
         <v>243</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>248</v>
       </c>
-      <c r="D7" t="s">
-        <v>253</v>
-      </c>
       <c r="E7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>237</v>
+        <v>231</v>
+      </c>
+      <c r="D8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E8" t="s">
+        <v>249</v>
+      </c>
+      <c r="F8" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>238</v>
-      </c>
-      <c r="F9" t="s">
-        <v>42</v>
+        <v>232</v>
+      </c>
+      <c r="B9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C9" t="s">
+        <v>244</v>
+      </c>
+      <c r="D9" t="s">
+        <v>250</v>
+      </c>
+      <c r="E9" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>239</v>
-      </c>
-      <c r="F10" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>235</v>
+      </c>
+      <c r="F12" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>236</v>
+      </c>
+      <c r="B13" t="s">
         <v>240</v>
       </c>
-      <c r="B11" t="s">
-        <v>244</v>
-      </c>
-      <c r="C11" t="s">
-        <v>249</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C13" t="s">
+        <v>245</v>
+      </c>
+      <c r="D13" t="s">
+        <v>251</v>
+      </c>
+      <c r="E13" t="s">
         <v>254</v>
       </c>
-      <c r="E11" t="s">
-        <v>257</v>
-      </c>
-      <c r="F11" t="s">
-        <v>233</v>
+      <c r="F13" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3106,132 +3114,132 @@
     </row>
     <row r="2" spans="1:6">
       <c r="F2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="F5" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B6" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C6" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E6" t="s">
         <v>254</v>
       </c>
-      <c r="E6" t="s">
-        <v>257</v>
-      </c>
       <c r="F6" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D7" t="s">
         <v>268</v>
       </c>
-      <c r="D7" t="s">
-        <v>271</v>
-      </c>
       <c r="E7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D8" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E8" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F8" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C9" t="s">
         <v>266</v>
       </c>
-      <c r="C9" t="s">
-        <v>269</v>
-      </c>
       <c r="D9" t="s">
+        <v>270</v>
+      </c>
+      <c r="E9" t="s">
         <v>273</v>
-      </c>
-      <c r="E9" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F10" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F11" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C12" t="s">
         <v>267</v>
       </c>
-      <c r="C12" t="s">
-        <v>270</v>
-      </c>
       <c r="D12" t="s">
+        <v>271</v>
+      </c>
+      <c r="E12" t="s">
         <v>274</v>
       </c>
-      <c r="E12" t="s">
-        <v>277</v>
-      </c>
       <c r="F12" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3257,167 +3265,167 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B8" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B10" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B11" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B14" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B15" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B16" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B18" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B21" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B22" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B24" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B25" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -3455,476 +3463,467 @@
     </row>
     <row r="2" spans="1:6">
       <c r="B2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D5" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E5" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F5" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E6" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F6" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E8" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F8" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C9" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F9" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D11" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E11" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F11" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B13" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C13" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D13" t="s">
-        <v>333</v>
-      </c>
-      <c r="E13" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="F13" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B14" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C14" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D14" t="s">
         <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C15" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F15" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C16" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D16" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C18" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D18" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E18" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F18" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B19" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C19" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D19" t="s">
         <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F19" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D20" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E20" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F20" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E21" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F21" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B22" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C22" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D22" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E22" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E23" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F23" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C24" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F24" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E25" t="s">
-        <v>352</v>
-      </c>
-      <c r="F25" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B26" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C26" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D26" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E26" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F26" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B28" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C28" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D28" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E28" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F28" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B29" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C29" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D29" t="s">
-        <v>338</v>
-      </c>
-      <c r="E29" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="F29" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C30" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F30" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B31" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C31" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D31" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F31" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B33" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C33" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D33" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E33" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F33" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B34" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C34" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D34" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E34" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F34" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -3934,187 +3933,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>365</v>
-      </c>
-      <c r="B3" t="s">
-        <v>376</v>
-      </c>
-      <c r="D3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>366</v>
-      </c>
-      <c r="B4" t="s">
-        <v>377</v>
-      </c>
-      <c r="D4" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="B5" t="s">
-        <v>378</v>
-      </c>
-      <c r="D5" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>368</v>
-      </c>
-      <c r="B8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>369</v>
-      </c>
-      <c r="B9" t="s">
-        <v>379</v>
-      </c>
-      <c r="D9" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>370</v>
-      </c>
-      <c r="B10" t="s">
-        <v>380</v>
-      </c>
-      <c r="D10" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>371</v>
-      </c>
-      <c r="C11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>185</v>
-      </c>
-      <c r="C12" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>372</v>
-      </c>
-      <c r="C13" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>374</v>
-      </c>
-      <c r="C15" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>372</v>
-      </c>
-      <c r="C17" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>373</v>
-      </c>
-      <c r="C18" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>375</v>
-      </c>
-      <c r="C19" t="s">
-        <v>386</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4133,48 +3952,173 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>392</v>
-      </c>
-      <c r="B4" t="s">
-        <v>394</v>
-      </c>
-      <c r="C4" t="s">
-        <v>397</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>393</v>
+        <v>361</v>
       </c>
       <c r="B5" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="C5" t="s">
-        <v>398</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>362</v>
+      </c>
       <c r="B6" t="s">
-        <v>396</v>
+        <v>364</v>
       </c>
       <c r="C6" t="s">
-        <v>399</v>
+        <v>367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>373</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>374</v>
+      </c>
+      <c r="B9" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>375</v>
+      </c>
+      <c r="B10" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -4184,184 +4128,135 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1">
         <v>0</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B5" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>389</v>
+      </c>
+      <c r="B6" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>390</v>
+      </c>
+      <c r="B7" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>391</v>
+      </c>
+      <c r="B9" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>392</v>
+      </c>
+      <c r="B10" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>393</v>
+      </c>
+      <c r="B11" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>394</v>
+      </c>
+      <c r="B12" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>396</v>
+      </c>
+      <c r="B14" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>397</v>
+      </c>
+      <c r="B15" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>398</v>
+      </c>
+      <c r="B16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>399</v>
+      </c>
+      <c r="B17" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>400</v>
       </c>
-      <c r="B2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="B3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>402</v>
-      </c>
-      <c r="B5" t="s">
-        <v>414</v>
-      </c>
-      <c r="C5" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>403</v>
-      </c>
-      <c r="B6" t="s">
-        <v>415</v>
-      </c>
-      <c r="C6" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="B7" t="s">
-        <v>416</v>
-      </c>
-      <c r="C7" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>405</v>
-      </c>
-      <c r="B9" t="s">
-        <v>417</v>
-      </c>
-      <c r="C9" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>406</v>
-      </c>
-      <c r="B10" t="s">
-        <v>418</v>
-      </c>
-      <c r="C10" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="B11" t="s">
-        <v>419</v>
-      </c>
-      <c r="C11" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>407</v>
-      </c>
-      <c r="B12" t="s">
-        <v>355</v>
-      </c>
-      <c r="C12" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>408</v>
-      </c>
-      <c r="B13" t="s">
-        <v>284</v>
-      </c>
-      <c r="C13" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>409</v>
-      </c>
-      <c r="B14" t="s">
-        <v>276</v>
-      </c>
-      <c r="C14" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+      <c r="B18" t="s">
         <v>410</v>
-      </c>
-      <c r="B15" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>411</v>
-      </c>
-      <c r="B16" t="s">
-        <v>224</v>
-      </c>
-      <c r="C16" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>412</v>
-      </c>
-      <c r="B17" t="s">
-        <v>421</v>
-      </c>
-      <c r="C17" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>413</v>
-      </c>
-      <c r="B18" t="s">
-        <v>422</v>
-      </c>
-      <c r="C18" t="s">
-        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -4390,51 +4285,51 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>431</v>
+        <v>411</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
       <c r="B4" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
       <c r="C4" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>433</v>
+        <v>413</v>
       </c>
       <c r="B5" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="C5" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" t="s">
-        <v>436</v>
+        <v>416</v>
       </c>
       <c r="C6" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -4566,7 +4461,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4585,242 +4480,229 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>420</v>
+      </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>438</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="B4" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="C4" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="B5" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="C5" t="s">
-        <v>475</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="B6" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="C6" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="B7" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="C7" t="s">
-        <v>477</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>444</v>
-      </c>
-      <c r="B8" t="s">
-        <v>463</v>
-      </c>
-      <c r="C8" t="s">
-        <v>478</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>445</v>
+        <v>426</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>446</v>
+        <v>427</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>443</v>
       </c>
       <c r="C10" t="s">
-        <v>479</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="B11" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="C11" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>448</v>
+        <v>241</v>
       </c>
       <c r="B12" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="C12" t="s">
-        <v>481</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="B13" t="s">
-        <v>466</v>
+        <v>446</v>
       </c>
       <c r="C13" t="s">
-        <v>482</v>
+        <v>462</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>258</v>
+        <v>429</v>
       </c>
       <c r="B14" t="s">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="C14" t="s">
-        <v>483</v>
+        <v>463</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="B15" t="s">
-        <v>468</v>
+        <v>335</v>
       </c>
       <c r="C15" t="s">
-        <v>484</v>
+        <v>464</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="B16" t="s">
-        <v>338</v>
+        <v>408</v>
       </c>
       <c r="C16" t="s">
-        <v>485</v>
+        <v>465</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="B17" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="C17" t="s">
-        <v>486</v>
+        <v>449</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>452</v>
-      </c>
-      <c r="B18" t="s">
-        <v>469</v>
-      </c>
-      <c r="C18" t="s">
-        <v>470</v>
+        <v>433</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>453</v>
+        <v>434</v>
+      </c>
+      <c r="B19" t="s">
+        <v>449</v>
+      </c>
+      <c r="C19" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>454</v>
+        <v>435</v>
       </c>
       <c r="B20" t="s">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="C20" t="s">
-        <v>487</v>
+        <v>467</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
       <c r="B21" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
       <c r="C21" t="s">
-        <v>488</v>
+        <v>468</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="B22" t="s">
-        <v>472</v>
+        <v>452</v>
       </c>
       <c r="C22" t="s">
-        <v>489</v>
+        <v>469</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>458</v>
-      </c>
-      <c r="B24" t="s">
-        <v>473</v>
-      </c>
-      <c r="C24" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>458</v>
-      </c>
-      <c r="B25" t="s">
-        <v>469</v>
-      </c>
-      <c r="C25" t="s">
-        <v>470</v>
+        <v>437</v>
+      </c>
+      <c r="B23" t="s">
+        <v>448</v>
+      </c>
+      <c r="C23" t="s">
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -4830,7 +4712,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4849,106 +4731,98 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" t="s">
-        <v>70</v>
+      <c r="A3" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>492</v>
+        <v>472</v>
+      </c>
+      <c r="B5" t="s">
+        <v>479</v>
+      </c>
+      <c r="C5" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>493</v>
+        <v>422</v>
       </c>
       <c r="B6" t="s">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="C6" t="s">
-        <v>503</v>
+        <v>455</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>442</v>
-      </c>
-      <c r="B7" t="s">
-        <v>461</v>
-      </c>
-      <c r="C7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>494</v>
+        <v>474</v>
+      </c>
+      <c r="B8" t="s">
+        <v>480</v>
+      </c>
+      <c r="C8" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="B9" t="s">
-        <v>501</v>
+        <v>442</v>
       </c>
       <c r="C9" t="s">
-        <v>504</v>
+        <v>457</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>496</v>
-      </c>
-      <c r="B10" t="s">
-        <v>463</v>
-      </c>
-      <c r="C10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>497</v>
+        <v>477</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>498</v>
+        <v>478</v>
+      </c>
+      <c r="B12" t="s">
+        <v>481</v>
+      </c>
+      <c r="C12" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>499</v>
-      </c>
       <c r="B13" t="s">
-        <v>502</v>
+        <v>481</v>
       </c>
       <c r="C13" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" t="s">
-        <v>502</v>
-      </c>
-      <c r="C14" t="s">
-        <v>505</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -4977,187 +4851,187 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>506</v>
+        <v>485</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>507</v>
+        <v>486</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>487</v>
+      </c>
+      <c r="B4" t="s">
+        <v>499</v>
+      </c>
+      <c r="C4" t="s">
         <v>508</v>
-      </c>
-      <c r="B4" t="s">
-        <v>520</v>
-      </c>
-      <c r="C4" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>488</v>
+      </c>
+      <c r="B5" t="s">
+        <v>500</v>
+      </c>
+      <c r="C5" t="s">
         <v>509</v>
-      </c>
-      <c r="B5" t="s">
-        <v>521</v>
-      </c>
-      <c r="C5" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>489</v>
+      </c>
+      <c r="B6" t="s">
+        <v>501</v>
+      </c>
+      <c r="C6" t="s">
         <v>510</v>
-      </c>
-      <c r="B6" t="s">
-        <v>522</v>
-      </c>
-      <c r="C6" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>490</v>
+      </c>
+      <c r="B7" t="s">
+        <v>502</v>
+      </c>
+      <c r="C7" t="s">
         <v>511</v>
-      </c>
-      <c r="B7" t="s">
-        <v>523</v>
-      </c>
-      <c r="C7" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>512</v>
+        <v>491</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>513</v>
+        <v>492</v>
       </c>
       <c r="B9" t="s">
-        <v>524</v>
+        <v>503</v>
       </c>
       <c r="C9" t="s">
-        <v>533</v>
+        <v>512</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="B10" t="s">
-        <v>522</v>
+        <v>501</v>
       </c>
       <c r="C10" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>515</v>
+        <v>494</v>
       </c>
       <c r="B11" t="s">
-        <v>523</v>
+        <v>502</v>
       </c>
       <c r="C11" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>516</v>
+        <v>495</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="B14" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C14" t="s">
-        <v>391</v>
+        <v>513</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>517</v>
+        <v>496</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>518</v>
+        <v>497</v>
       </c>
       <c r="B16" t="s">
-        <v>525</v>
+        <v>504</v>
       </c>
       <c r="C16" t="s">
-        <v>534</v>
+        <v>514</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="B17" t="s">
-        <v>526</v>
+        <v>505</v>
       </c>
       <c r="C17" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B18" t="s">
-        <v>527</v>
+        <v>506</v>
       </c>
       <c r="C18" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B19" t="s">
-        <v>528</v>
+        <v>507</v>
       </c>
       <c r="C19" t="s">
-        <v>537</v>
+        <v>517</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>519</v>
+        <v>498</v>
       </c>
       <c r="B20" t="s">
-        <v>525</v>
+        <v>504</v>
       </c>
       <c r="C20" t="s">
-        <v>534</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -5167,46 +5041,34 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" s="1">
         <v>0</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>308</v>
+      </c>
       <c r="B2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" t="s">
-        <v>539</v>
-      </c>
-      <c r="D2" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>518</v>
+      </c>
       <c r="B3" t="s">
-        <v>538</v>
-      </c>
-      <c r="C3" t="s">
-        <v>540</v>
-      </c>
-      <c r="D3" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
     </row>
   </sheetData>
@@ -5215,6 +5077,242 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>522</v>
+      </c>
+      <c r="B3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>522</v>
+      </c>
+      <c r="B4" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>523</v>
+      </c>
+      <c r="B6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>524</v>
+      </c>
+      <c r="B7" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>524</v>
+      </c>
+      <c r="B8" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>524</v>
+      </c>
+      <c r="B9" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>524</v>
+      </c>
+      <c r="B12" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>523</v>
+      </c>
+      <c r="B13" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>523</v>
+      </c>
+      <c r="B14" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>524</v>
+      </c>
+      <c r="B15" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>524</v>
+      </c>
+      <c r="B16" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>525</v>
+      </c>
+      <c r="B18" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>526</v>
+      </c>
+      <c r="B20" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>526</v>
+      </c>
+      <c r="B21" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>526</v>
+      </c>
+      <c r="B22" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>527</v>
+      </c>
+      <c r="B23" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>527</v>
+      </c>
+      <c r="B24" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>529</v>
+      </c>
+      <c r="B27" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>530</v>
+      </c>
+      <c r="B28" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>530</v>
+      </c>
+      <c r="B29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>530</v>
+      </c>
+      <c r="B30" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>521</v>
+      </c>
+      <c r="B32" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>521</v>
+      </c>
+      <c r="B33" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>410</v>
+      </c>
+      <c r="B35" t="s">
+        <v>532</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D22"/>
   <sheetViews>
@@ -5238,78 +5336,78 @@
     </row>
     <row r="2" spans="1:4">
       <c r="B2" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="C4" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="D4" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="C5" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="D5" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="C6" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="D6" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="C8" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="D8" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5317,7 +5415,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -5328,116 +5426,116 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="C12" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="D12" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="C13" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="D13" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="C14" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="D14" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="C16" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D16" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="C18" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="D18" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="C19" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="D19" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>564</v>
       </c>
       <c r="D21" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="B22" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>565</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>564</v>
       </c>
     </row>
   </sheetData>
@@ -5445,7 +5543,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -5469,27 +5567,27 @@
     </row>
     <row r="2" spans="1:4">
       <c r="B2" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="C2" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D2" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5505,43 +5603,43 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="C6" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="D6" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5549,57 +5647,57 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="C11" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="D11" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
     </row>
   </sheetData>
@@ -5607,7 +5705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D35"/>
   <sheetViews>
@@ -5631,32 +5729,32 @@
     </row>
     <row r="2" spans="1:4">
       <c r="B2" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>592</v>
       </c>
       <c r="B4" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>565</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>564</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5664,13 +5762,13 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="D5" t="s">
-        <v>391</v>
+        <v>513</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5678,13 +5776,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="C6" t="s">
-        <v>396</v>
+        <v>365</v>
       </c>
       <c r="D6" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5692,90 +5790,90 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="D7" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="C8" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="C9" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D9" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B11" t="s">
-        <v>476</v>
+        <v>455</v>
       </c>
       <c r="C11" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D11" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B12" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="C12" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D12" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D13" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B14" t="s">
-        <v>381</v>
+        <v>613</v>
       </c>
       <c r="C14" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D14" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5783,239 +5881,239 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>469</v>
+        <v>448</v>
       </c>
       <c r="D15" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="C16" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="D16" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="C17" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D17" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="B19" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="C19" t="s">
+        <v>173</v>
+      </c>
+      <c r="D19" t="s">
         <v>178</v>
-      </c>
-      <c r="D19" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B20" t="s">
-        <v>381</v>
+        <v>613</v>
       </c>
       <c r="C20" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D20" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="D21" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="B22" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C22" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22" t="s">
         <v>161</v>
-      </c>
-      <c r="D22" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>517</v>
+        <v>496</v>
       </c>
       <c r="B23" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C23" t="s">
-        <v>527</v>
+        <v>506</v>
       </c>
       <c r="D23" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="C24" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D24" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B26" t="s">
-        <v>381</v>
+        <v>613</v>
       </c>
       <c r="C26" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D26" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="B27" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C27" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D27" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
+        <v>496</v>
+      </c>
+      <c r="B28" t="s">
+        <v>616</v>
+      </c>
+      <c r="C28" t="s">
+        <v>507</v>
+      </c>
+      <c r="D28" t="s">
         <v>517</v>
-      </c>
-      <c r="B28" t="s">
-        <v>620</v>
-      </c>
-      <c r="C28" t="s">
-        <v>528</v>
-      </c>
-      <c r="D28" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="C29" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D29" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="C30" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D30" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="C31" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="D31" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="B33" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="C33" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D33" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="B34" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C34" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D34" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="C35" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="D35" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
     </row>
   </sheetData>
@@ -6023,7 +6121,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -6047,143 +6145,146 @@
     </row>
     <row r="2" spans="1:4">
       <c r="B2" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>640</v>
+        <v>636</v>
+      </c>
+      <c r="B3" t="s">
+        <v>616</v>
       </c>
       <c r="C3" t="s">
-        <v>523</v>
+        <v>502</v>
       </c>
       <c r="D3" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C4" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D4" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C5" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D5" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B6" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C6" t="s">
-        <v>416</v>
+        <v>390</v>
       </c>
       <c r="D6" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B7" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C7" t="s">
-        <v>419</v>
+        <v>393</v>
       </c>
       <c r="D7" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="C8" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="D8" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C9" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="D9" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C10" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="D10" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C11" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D11" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C12" t="s">
-        <v>459</v>
+        <v>438</v>
       </c>
       <c r="D12" t="s">
-        <v>474</v>
+        <v>453</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="D13" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -6191,7 +6292,7 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D14" t="s">
         <v>37</v>
@@ -6199,55 +6300,55 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>497</v>
+        <v>476</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D18" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>558</v>
+        <v>649</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C21" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="D21" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
     </row>
   </sheetData>
@@ -6257,13 +6358,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -6276,39 +6377,24 @@
       <c r="D1" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="1">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
       <c r="D2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>44</v>
       </c>
       <c r="B3" t="s">
         <v>47</v>
       </c>
-      <c r="C3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -6316,18 +6402,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:4">
       <c r="B5" t="s">
         <v>48</v>
       </c>
-      <c r="E5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -6335,39 +6421,33 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:4">
       <c r="B7" t="s">
         <v>50</v>
       </c>
-      <c r="C7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+    </row>
+    <row r="8" spans="1:4">
       <c r="B8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:4">
       <c r="B9" t="s">
         <v>52</v>
       </c>
-      <c r="E9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="E10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" t="s">
-        <v>61</v>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -6402,137 +6482,137 @@
     </row>
     <row r="2" spans="1:5">
       <c r="C2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="C3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
         <v>62</v>
       </c>
-      <c r="B4" t="s">
-        <v>67</v>
-      </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="B5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="B7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="B9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="B11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="B13" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -6561,50 +6641,50 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -6633,29 +6713,29 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
         <v>96</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>101</v>
-      </c>
-      <c r="C3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" t="s">
         <v>97</v>
-      </c>
-      <c r="B4" t="s">
-        <v>102</v>
       </c>
       <c r="C4" t="s">
         <v>37</v>
@@ -6663,32 +6743,32 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" t="s">
         <v>98</v>
       </c>
-      <c r="B5" t="s">
-        <v>103</v>
-      </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" t="s">
         <v>99</v>
-      </c>
-      <c r="B6" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" t="s">
         <v>100</v>
       </c>
-      <c r="B7" t="s">
-        <v>105</v>
-      </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -6717,51 +6797,51 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -6771,7 +6851,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6795,147 +6875,135 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="B2" t="s">
-        <v>122</v>
-      </c>
       <c r="C2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E2" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="B3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>114</v>
-      </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="E4" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D6" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C8" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D8" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E8" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C9" t="s">
-        <v>142</v>
+        <v>136</v>
+      </c>
+      <c r="D9" t="s">
+        <v>147</v>
       </c>
       <c r="E9" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D10" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="E10" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -6943,81 +7011,98 @@
         <v>115</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D11" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E11" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B12" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C12" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D12" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E12" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E13" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="C14" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="D14" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E14" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B15" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C15" t="s">
-        <v>147</v>
+        <v>141</v>
+      </c>
+      <c r="D15" t="s">
+        <v>144</v>
       </c>
       <c r="E15" t="s">
-        <v>167</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -7046,76 +7131,76 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" t="s">
         <v>174</v>
-      </c>
-      <c r="C3" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" t="s">
         <v>170</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>175</v>
-      </c>
-      <c r="C5" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" t="s">
         <v>171</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>176</v>
-      </c>
-      <c r="C6" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" t="s">
         <v>172</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>177</v>
-      </c>
-      <c r="C7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" t="s">
         <v>173</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>178</v>
-      </c>
-      <c r="C8" t="s">
-        <v>183</v>
       </c>
     </row>
   </sheetData>
